--- a/RSF_Report_2025/R_calc_RSF_2025/Data/MtBTN geography 2025_Selected.xlsx
+++ b/RSF_Report_2025/R_calc_RSF_2025/Data/MtBTN geography 2025_Selected.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9324"/>
+    <workbookView windowWidth="22188" windowHeight="8604"/>
   </bookViews>
   <sheets>
     <sheet name="Data_for_analyzis" sheetId="7" r:id="rId1"/>
@@ -1381,7 +1381,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="8"/>
+      <name val="Tahoma"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Tahoma"/>
       <charset val="204"/>
     </font>
@@ -1392,13 +1398,7 @@
       <charset val="204"/>
     </font>
     <font>
-      <b/>
-      <sz val="8"/>
-      <name val="Tahoma"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="8"/>
+      <sz val="9"/>
       <name val="Tahoma"/>
       <charset val="204"/>
     </font>
@@ -2470,9 +2470,9 @@
   <dimension ref="A1:AT975"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="O82" sqref="O82"/>
+      <selection pane="bottomLeft" activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2579,7 +2579,7 @@
       <c r="AS1" s="13"/>
       <c r="AT1" s="13"/>
     </row>
-    <row r="2" s="2" customFormat="1" ht="19.2" hidden="1" customHeight="1" spans="1:46">
+    <row r="2" s="2" customFormat="1" ht="19.2" customHeight="1" spans="1:46">
       <c r="A2" s="9" t="s">
         <v>15</v>
       </c>
@@ -2656,7 +2656,7 @@
       <c r="AS2" s="9"/>
       <c r="AT2" s="9"/>
     </row>
-    <row r="3" s="2" customFormat="1" ht="13.2" hidden="1" customHeight="1" spans="1:46">
+    <row r="3" s="2" customFormat="1" ht="13.2" customHeight="1" spans="1:46">
       <c r="A3" s="9" t="s">
         <v>20</v>
       </c>
@@ -2734,7 +2734,7 @@
       <c r="AS3" s="9"/>
       <c r="AT3" s="9"/>
     </row>
-    <row r="4" s="2" customFormat="1" hidden="1" spans="1:46">
+    <row r="4" s="2" customFormat="1" spans="1:46">
       <c r="A4" s="9" t="s">
         <v>23</v>
       </c>
@@ -3280,7 +3280,7 @@
       <c r="AS10" s="13"/>
       <c r="AT10" s="13"/>
     </row>
-    <row r="11" s="2" customFormat="1" ht="43.2" hidden="1" spans="1:46">
+    <row r="11" s="2" customFormat="1" ht="43.2" spans="1:46">
       <c r="A11" s="9" t="s">
         <v>48</v>
       </c>
@@ -3358,7 +3358,7 @@
       <c r="AS11" s="9"/>
       <c r="AT11" s="9"/>
     </row>
-    <row r="12" s="2" customFormat="1" hidden="1" spans="1:46">
+    <row r="12" s="2" customFormat="1" spans="1:46">
       <c r="A12" s="9" t="s">
         <v>53</v>
       </c>
@@ -3436,7 +3436,7 @@
       <c r="AS12" s="9"/>
       <c r="AT12" s="9"/>
     </row>
-    <row r="13" s="3" customFormat="1" ht="15.6" hidden="1" customHeight="1" spans="1:46">
+    <row r="13" s="3" customFormat="1" ht="15.6" customHeight="1" spans="1:46">
       <c r="A13" s="20" t="s">
         <v>55</v>
       </c>
@@ -3514,7 +3514,7 @@
       <c r="AS13" s="20"/>
       <c r="AT13" s="20"/>
     </row>
-    <row r="14" s="4" customFormat="1" hidden="1" spans="1:15">
+    <row r="14" s="4" customFormat="1" spans="1:15">
       <c r="A14" s="4" t="s">
         <v>56</v>
       </c>
@@ -3993,7 +3993,7 @@
         <v>0</v>
       </c>
       <c r="O20" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20" s="13"/>
       <c r="Q20" s="13"/>
@@ -4068,7 +4068,7 @@
         <v>1</v>
       </c>
       <c r="O21" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" s="13"/>
       <c r="Q21" s="13"/>
@@ -4141,7 +4141,7 @@
         <v>1</v>
       </c>
       <c r="O22" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" s="13"/>
       <c r="Q22" s="13"/>
@@ -4215,7 +4215,7 @@
         <v>0</v>
       </c>
       <c r="O23" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23" s="13"/>
       <c r="Q23" s="13"/>
@@ -4289,7 +4289,7 @@
         <v>0</v>
       </c>
       <c r="O24" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24" s="13"/>
       <c r="Q24" s="13"/>
@@ -4323,7 +4323,7 @@
       <c r="AS24" s="13"/>
       <c r="AT24" s="13"/>
     </row>
-    <row r="25" s="1" customFormat="1" ht="17.4" hidden="1" customHeight="1" spans="1:46">
+    <row r="25" s="1" customFormat="1" ht="17.4" customHeight="1" spans="1:46">
       <c r="A25" s="13" t="s">
         <v>90</v>
       </c>
@@ -4401,7 +4401,7 @@
       <c r="AS25" s="13"/>
       <c r="AT25" s="13"/>
     </row>
-    <row r="26" s="1" customFormat="1" ht="19.2" hidden="1" customHeight="1" spans="1:46">
+    <row r="26" s="1" customFormat="1" ht="19.2" customHeight="1" spans="1:46">
       <c r="A26" s="13" t="s">
         <v>93</v>
       </c>
@@ -4992,7 +4992,7 @@
         <v>0</v>
       </c>
       <c r="O33" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P33" s="13"/>
       <c r="Q33" s="13"/>
@@ -5070,7 +5070,7 @@
         <v>0</v>
       </c>
       <c r="O34" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P34" s="31"/>
       <c r="Q34" s="31"/>
@@ -5146,7 +5146,7 @@
         <v>2</v>
       </c>
       <c r="O35" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35" s="13"/>
       <c r="Q35" s="13"/>
@@ -5221,7 +5221,7 @@
         <v>2</v>
       </c>
       <c r="O36" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" s="1" customFormat="1" spans="1:15">
@@ -5364,7 +5364,7 @@
         <v>0</v>
       </c>
       <c r="O39" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P39" s="13"/>
       <c r="Q39" s="13"/>
@@ -5442,7 +5442,7 @@
         <v>0</v>
       </c>
       <c r="O40" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P40" s="13"/>
       <c r="Q40" s="13"/>
@@ -5520,7 +5520,7 @@
         <v>0</v>
       </c>
       <c r="O41" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P41" s="13"/>
       <c r="Q41" s="13"/>
@@ -5598,7 +5598,7 @@
         <v>0</v>
       </c>
       <c r="O42" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P42" s="13"/>
       <c r="Q42" s="13"/>
@@ -5788,7 +5788,7 @@
       <c r="AS44" s="13"/>
       <c r="AT44" s="13"/>
     </row>
-    <row r="45" s="1" customFormat="1" hidden="1" spans="1:46">
+    <row r="45" s="1" customFormat="1" spans="1:46">
       <c r="A45" s="13" t="s">
         <v>150</v>
       </c>
@@ -5863,7 +5863,7 @@
       <c r="AS45" s="13"/>
       <c r="AT45" s="13"/>
     </row>
-    <row r="46" s="1" customFormat="1" hidden="1" spans="1:46">
+    <row r="46" s="1" customFormat="1" spans="1:46">
       <c r="A46" s="13" t="s">
         <v>153</v>
       </c>
@@ -5938,7 +5938,7 @@
       <c r="AS46" s="13"/>
       <c r="AT46" s="13"/>
     </row>
-    <row r="47" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:46">
+    <row r="47" s="1" customFormat="1" customHeight="1" spans="1:46">
       <c r="A47" s="13" t="s">
         <v>155</v>
       </c>
@@ -6013,7 +6013,7 @@
       <c r="AS47" s="13"/>
       <c r="AT47" s="13"/>
     </row>
-    <row r="48" s="1" customFormat="1" ht="18" hidden="1" customHeight="1" spans="1:46">
+    <row r="48" s="1" customFormat="1" ht="18" customHeight="1" spans="1:46">
       <c r="A48" s="13" t="s">
         <v>157</v>
       </c>
@@ -6088,7 +6088,7 @@
       <c r="AS48" s="13"/>
       <c r="AT48" s="13"/>
     </row>
-    <row r="49" s="1" customFormat="1" ht="18" hidden="1" customHeight="1" spans="1:46">
+    <row r="49" s="1" customFormat="1" ht="18" customHeight="1" spans="1:46">
       <c r="A49" s="13" t="s">
         <v>159</v>
       </c>
@@ -6207,7 +6207,7 @@
         <v>0</v>
       </c>
       <c r="O50" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R50" s="13"/>
       <c r="T50" s="13"/>
@@ -6237,7 +6237,7 @@
       <c r="AS50" s="13"/>
       <c r="AT50" s="13"/>
     </row>
-    <row r="51" s="1" customFormat="1" hidden="1" spans="1:46">
+    <row r="51" s="1" customFormat="1" spans="1:46">
       <c r="A51" s="13" t="s">
         <v>166</v>
       </c>
@@ -6312,7 +6312,7 @@
       <c r="AS51" s="13"/>
       <c r="AT51" s="13"/>
     </row>
-    <row r="52" s="1" customFormat="1" hidden="1" spans="1:46">
+    <row r="52" s="1" customFormat="1" spans="1:46">
       <c r="A52" s="13" t="s">
         <v>169</v>
       </c>
@@ -6387,7 +6387,7 @@
       <c r="AS52" s="13"/>
       <c r="AT52" s="13"/>
     </row>
-    <row r="53" s="1" customFormat="1" hidden="1" spans="1:46">
+    <row r="53" s="1" customFormat="1" spans="1:46">
       <c r="A53" s="13" t="s">
         <v>171</v>
       </c>
@@ -6506,7 +6506,7 @@
         <v>0</v>
       </c>
       <c r="O54" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R54" s="59"/>
       <c r="T54" s="13"/>
@@ -6893,7 +6893,7 @@
         <v>0</v>
       </c>
       <c r="O59" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P59" s="13"/>
       <c r="Q59" s="13"/>
@@ -6927,7 +6927,7 @@
       <c r="AS59" s="13"/>
       <c r="AT59" s="13"/>
     </row>
-    <row r="60" s="1" customFormat="1" hidden="1" spans="1:46">
+    <row r="60" s="1" customFormat="1" spans="1:46">
       <c r="A60" s="13" t="s">
         <v>189</v>
       </c>
@@ -7005,7 +7005,7 @@
       <c r="AS60" s="13"/>
       <c r="AT60" s="13"/>
     </row>
-    <row r="61" s="1" customFormat="1" hidden="1" spans="1:15">
+    <row r="61" s="1" customFormat="1" spans="1:15">
       <c r="A61" s="1" t="s">
         <v>191</v>
       </c>
@@ -7052,7 +7052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" s="1" customFormat="1" ht="19.2" hidden="1" customHeight="1" spans="1:46">
+    <row r="62" s="1" customFormat="1" ht="19.2" customHeight="1" spans="1:46">
       <c r="A62" s="13" t="s">
         <v>194</v>
       </c>
@@ -8562,7 +8562,7 @@
       <c r="AS81" s="13"/>
       <c r="AT81" s="13"/>
     </row>
-    <row r="82" s="1" customFormat="1" spans="1:46">
+    <row r="82" s="1" customFormat="1" hidden="1" spans="1:46">
       <c r="A82" s="62" t="s">
         <v>252</v>
       </c>
@@ -8698,7 +8698,7 @@
       <c r="AS83" s="13"/>
       <c r="AT83" s="13"/>
     </row>
-    <row r="84" s="1" customFormat="1" ht="28.8" hidden="1" spans="1:46">
+    <row r="84" s="1" customFormat="1" ht="28.8" spans="1:46">
       <c r="A84" s="62" t="s">
         <v>257</v>
       </c>
@@ -8772,7 +8772,7 @@
       <c r="AS84" s="13"/>
       <c r="AT84" s="13"/>
     </row>
-    <row r="85" s="1" customFormat="1" ht="43.2" hidden="1" spans="1:46">
+    <row r="85" s="1" customFormat="1" ht="43.2" spans="1:46">
       <c r="A85" s="62" t="s">
         <v>260</v>
       </c>
@@ -8850,7 +8850,7 @@
       <c r="AS85" s="13"/>
       <c r="AT85" s="13"/>
     </row>
-    <row r="86" s="1" customFormat="1" ht="57.6" hidden="1" spans="1:46">
+    <row r="86" s="1" customFormat="1" ht="57.6" spans="1:46">
       <c r="A86" s="62" t="s">
         <v>263</v>
       </c>
@@ -8928,7 +8928,7 @@
       <c r="AS86" s="13"/>
       <c r="AT86" s="13"/>
     </row>
-    <row r="87" s="1" customFormat="1" ht="43.2" spans="1:46">
+    <row r="87" s="1" customFormat="1" ht="43.2" hidden="1" spans="1:46">
       <c r="A87" s="62" t="s">
         <v>266</v>
       </c>
@@ -9680,7 +9680,7 @@
       <c r="AS97" s="13"/>
       <c r="AT97" s="13"/>
     </row>
-    <row r="98" s="1" customFormat="1" ht="43.2" hidden="1" spans="1:46">
+    <row r="98" s="1" customFormat="1" ht="43.2" spans="1:46">
       <c r="A98" s="62" t="s">
         <v>294</v>
       </c>
@@ -9758,7 +9758,7 @@
       <c r="AS98" s="13"/>
       <c r="AT98" s="13"/>
     </row>
-    <row r="99" s="1" customFormat="1" ht="86.4" hidden="1" spans="1:46">
+    <row r="99" s="1" customFormat="1" ht="86.4" spans="1:46">
       <c r="A99" s="83" t="s">
         <v>297</v>
       </c>
@@ -9834,7 +9834,7 @@
       <c r="AS99" s="13"/>
       <c r="AT99" s="13"/>
     </row>
-    <row r="100" s="1" customFormat="1" ht="28.8" hidden="1" spans="1:46">
+    <row r="100" s="1" customFormat="1" ht="28.8" spans="1:46">
       <c r="A100" s="83" t="s">
         <v>300</v>
       </c>
@@ -9910,7 +9910,7 @@
       <c r="AS100" s="13"/>
       <c r="AT100" s="13"/>
     </row>
-    <row r="101" s="1" customFormat="1" ht="28.8" hidden="1" spans="1:46">
+    <row r="101" s="1" customFormat="1" ht="28.8" spans="1:46">
       <c r="A101" s="83" t="s">
         <v>303</v>
       </c>
@@ -9986,7 +9986,7 @@
       <c r="AS101" s="13"/>
       <c r="AT101" s="13"/>
     </row>
-    <row r="102" s="1" customFormat="1" ht="28.8" hidden="1" spans="1:46">
+    <row r="102" s="1" customFormat="1" ht="28.8" spans="1:46">
       <c r="A102" s="83" t="s">
         <v>306</v>
       </c>
@@ -10062,7 +10062,7 @@
       <c r="AS102" s="13"/>
       <c r="AT102" s="13"/>
     </row>
-    <row r="103" s="1" customFormat="1" ht="28.8" hidden="1" spans="1:46">
+    <row r="103" s="1" customFormat="1" ht="28.8" spans="1:46">
       <c r="A103" s="83" t="s">
         <v>309</v>
       </c>
@@ -10138,7 +10138,7 @@
       <c r="AS103" s="13"/>
       <c r="AT103" s="13"/>
     </row>
-    <row r="104" s="1" customFormat="1" ht="43.2" hidden="1" spans="1:46">
+    <row r="104" s="1" customFormat="1" ht="43.2" spans="1:46">
       <c r="A104" s="62" t="s">
         <v>312</v>
       </c>
@@ -10216,7 +10216,7 @@
       <c r="AS104" s="13"/>
       <c r="AT104" s="13"/>
     </row>
-    <row r="105" s="1" customFormat="1" ht="28.8" hidden="1" spans="1:46">
+    <row r="105" s="1" customFormat="1" ht="28.8" spans="1:46">
       <c r="A105" s="62" t="s">
         <v>315</v>
       </c>
@@ -10294,7 +10294,7 @@
       <c r="AS105" s="13"/>
       <c r="AT105" s="13"/>
     </row>
-    <row r="106" s="1" customFormat="1" ht="28.8" hidden="1" spans="1:46">
+    <row r="106" s="1" customFormat="1" ht="28.8" spans="1:46">
       <c r="A106" s="62" t="s">
         <v>318</v>
       </c>
@@ -52089,7 +52089,7 @@
     <filterColumn colId="14">
       <filters>
         <filter val="0"/>
-        <filter val="?"/>
+        <filter val="1"/>
       </filters>
     </filterColumn>
     <extLst/>
